--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.19e+02</t>
+          <t>1.00e+03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18.1</t>
+          <t>-0.403</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.18e+03</t>
+          <t>9.82e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-18.2</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.97e+02</t>
+          <t>9.90e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.343</t>
+          <t>0.966</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.02e+03</t>
+          <t>2.75e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-923.0</t>
+          <t>-175.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.74e+02</t>
+          <t>4.98e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-874.0</t>
+          <t>-398.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>1.02e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-909.0</t>
+          <t>-2.29</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.08e+02</t>
+          <t>3.97e+02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-41.6</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.66e+02</t>
+          <t>5.92e+02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>-18.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.76e+02</t>
+          <t>5.98e+02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-15.1</t>
+          <t>-19.6</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.20e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.16e-02</t>
+          <t>5.10e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>-1.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31e-03</t>
+          <t>4.67e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98.9</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.46e-02</t>
+          <t>4.67e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>89.1</t>
+          <t>6.68</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.79e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-64.0</t>
+          <t>-488.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.43e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-160.0</t>
+          <t>-488.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.20e-01</t>
+          <t>8.54e-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-88.4</t>
+          <t>49.8</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.91e-05</t>
+          <t>1.02e-04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.874</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>9.96e-05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.518</t>
+          <t>0.415</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>9.93e-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.853</t>
+          <t>0.689</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.00e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -785,22 +785,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>9.98e-01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.181</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>9.99e-01</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.137</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.0663</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.70e+02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1.00e+03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-0.403</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.82e+02</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-0.311</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.90e+02</t>
+          <t>9.84e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>1.64</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75e+02</t>
+          <t>2.84e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-175.0</t>
+          <t>97.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.98e+02</t>
+          <t>9.78e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-398.0</t>
+          <t>90.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.02e+02</t>
+          <t>6.24e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>93.8</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.97e+02</t>
+          <t>1.20e+00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.92e+02</t>
+          <t>1.07e-02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-18.4</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.98e+02</t>
+          <t>1.02e-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-19.6</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -624,42 +624,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.10e-01</t>
+          <t>4.61e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>-15.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.67e-01</t>
+          <t>4.41e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>-10.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.67e-01</t>
+          <t>4.55e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>-13.8</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>1.29e-02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-488.0</t>
+          <t>92.4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>7.20e-03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-488.0</t>
+          <t>95.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.54e-02</t>
+          <t>1.12e-05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>5.06e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.00e-04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-0.342</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.02e-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-2.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.96e-05</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.415</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.93e-05</t>
+          <t>9.95e-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.689</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.97e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.97e-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.181</t>
+          <t>0.161</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.99e-01</t>
+          <t>9.97e-01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.295</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.70e+02</t>
+          <t>1.01e+03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>9.75e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.311</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.84e+02</t>
+          <t>9.98e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.24</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.84e+00</t>
+          <t>4.31e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.2</t>
+          <t>-331.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.78e+00</t>
+          <t>3.96e+01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90.2</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.24e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>93.8</t>
+          <t>93.9</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.20e+00</t>
+          <t>4.31e+02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.07e-02</t>
+          <t>1.74e+01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>96.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.02e-03</t>
+          <t>1.68e+03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-237.0</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.61e-01</t>
+          <t>3.27e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.2</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.41e-01</t>
+          <t>4.74e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>-18.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.55e-01</t>
+          <t>3.88e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-13.8</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.29e-02</t>
+          <t>2.92e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.20e-03</t>
+          <t>2.29e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95.8</t>
+          <t>-34.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.12e-05</t>
+          <t>2.55e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-50.2</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.06e-05</t>
+          <t>4.99e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -733,27 +733,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.342</t>
+          <t>-0.452</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.02e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-0.134</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.95e-05</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.611</t>
         </is>
       </c>
     </row>
@@ -770,37 +770,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.97e-01</t>
+          <t>9.98e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.97e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>1.11e-14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.98e-01</t>
+          <t>9.96e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.97e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>1.11e-14</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>9.82e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.75e+02</t>
+          <t>1.02e+03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.98e+02</t>
+          <t>9.31e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.31e+02</t>
+          <t>1.42e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-331.0</t>
+          <t>98.6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.96e+01</t>
+          <t>2.78e-04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.08e+00</t>
+          <t>1.08e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>93.9</t>
+          <t>-7.75</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.31e+02</t>
+          <t>3.23e+02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74e+01</t>
+          <t>5.21e+02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96.5</t>
+          <t>-4.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.68e+03</t>
+          <t>6.38e+02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-237.0</t>
+          <t>-27.6</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.27e-01</t>
+          <t>4.41e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.1</t>
+          <t>-10.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.74e-01</t>
+          <t>3.56e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-18.5</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.88e-01</t>
+          <t>3.97e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.788</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.92e-06</t>
+          <t>9.55e-02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.29e-01</t>
+          <t>7.41e-02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-34.5</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.55e-01</t>
+          <t>1.15e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-50.2</t>
+          <t>32.6</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.99e-05</t>
+          <t>4.96e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-0.663</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-0.452</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.134</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>9.86e-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.611</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.98e-01</t>
+          <t>9.96e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.96e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.423</t>
+          <t>1.11e-14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.00108</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.82e+02</t>
+          <t>9.59e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02e+03</t>
+          <t>1.01e+03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.31e+02</t>
+          <t>9.84e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.42e+00</t>
+          <t>1.07e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.6</t>
+          <t>-6.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.78e-04</t>
+          <t>1.31e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-31.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.08e+02</t>
+          <t>8.27e-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-7.75</t>
+          <t>99.2</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.23e+02</t>
+          <t>6.35e+02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>-27.1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.21e+02</t>
+          <t>2.59e+02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-4.22</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.38e+02</t>
+          <t>4.00e+01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-27.6</t>
+          <t>92.0</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.41e-01</t>
+          <t>3.84e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.2</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.56e-01</t>
+          <t>3.85e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.97e-01</t>
+          <t>4.81e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>-20.4</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.55e-02</t>
+          <t>1.17e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.41e-02</t>
+          <t>2.13e-08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.15e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>-194.0</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.96e-05</t>
+          <t>5.01e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.00e-04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-0.663</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>9.86e-05</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-0.0933</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.96e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -780,27 +780,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00e+00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>1.11e-14</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>1.00e+00</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>1.11e-14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.00108</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -478,141 +478,141 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1 [Ω]</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.59e+02</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-0.0639</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>6.06e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.84e+02</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.433</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2 [Ω]</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>1.00e+01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.07e+02</t>
+          <t>3.39e-03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.61</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.31e+02</t>
+          <t>5.80e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-31.2</t>
+          <t>-17.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.27e-01</t>
+          <t>5.38e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>99.2</t>
+          <t>-8.45</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R3 [Ω]</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.00e+02</t>
+          <t>4.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e+02</t>
+          <t>1.00e+01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.35e+02</t>
+          <t>5.40e+00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-27.1</t>
+          <t>-34.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59e+02</t>
+          <t>1.79e+00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.00e+01</t>
+          <t>4.15e-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>99.0</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.84e-01</t>
+          <t>3.90e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85e-01</t>
+          <t>1.56e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.81e-01</t>
+          <t>3.11e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-20.4</t>
+          <t>22.1</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.17e-01</t>
+          <t>3.15e-02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.13e-08</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-194.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>3.57e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-194.0</t>
+          <t>-110.0</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.01e-05</t>
+          <t>4.99e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.0389</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -743,17 +743,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.0933</t>
+          <t>-0.711</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.98e-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.215</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.10e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.0639</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06e+00</t>
+          <t>6.10e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.433</t>
+          <t>-1.34</t>
         </is>
       </c>
     </row>
@@ -535,37 +535,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+01</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39e-03</t>
+          <t>5.42e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>-8.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80e+00</t>
+          <t>5.19e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-17.5</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.38e+00</t>
+          <t>4.91e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-8.45</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
@@ -582,37 +582,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.00e+01</t>
+          <t>4.00e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.40e+00</t>
+          <t>1.35e+00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-34.9</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.79e+00</t>
+          <t>4.01e+00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>-0.286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.15e-02</t>
+          <t>2.98e+00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>25.4</t>
         </is>
       </c>
     </row>
@@ -624,42 +624,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.00e-01</t>
+          <t>1.70e-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.00e-01</t>
+          <t>1.70e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.90e-01</t>
+          <t>1.18e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.56e-01</t>
+          <t>1.63e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.11e-01</t>
+          <t>1.62e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>25.2</t>
         </is>
       </c>
     </row>
@@ -671,42 +671,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.70e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.70e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15e-02</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>2.66e-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>5.00e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-194.0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3.57e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-110.0</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
@@ -728,32 +728,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>9.94e-05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.11e-14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.93e-05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>46.8</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.711</t>
+          <t>1.11e-14</t>
         </is>
       </c>
     </row>
@@ -765,42 +765,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.51e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.98e-01</t>
+          <t>9.49e-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.215</t>
+          <t>0.0819</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.54e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>-0.426</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.0256</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.21e+00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-3.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>6.10e+00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-1.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.10e+00</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.08e+00</t>
+          <t>6.02e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-0.375</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.42e+00</t>
+          <t>4.99e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>0.237</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.19e+00</t>
+          <t>4.88e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.91e+00</t>
+          <t>3.93e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>21.4</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35e+00</t>
+          <t>3.39e+00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.01e+00</t>
+          <t>3.42e+00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.286</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.98e+00</t>
+          <t>7.24e+00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>-81.1</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.18e-01</t>
+          <t>1.59e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.63e-01</t>
+          <t>1.58e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.461</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.62e-01</t>
+          <t>2.11e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>-80.4</t>
         </is>
       </c>
     </row>
@@ -686,27 +686,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>2.94e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>-24.3</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.99e-05</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.11e-14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>9.94e-05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1.11e-14</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.93e-05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>46.8</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>9.96e-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>41.1</t>
         </is>
       </c>
     </row>
@@ -770,27 +770,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>9.48e-01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>9.51e-01</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0819</t>
+          <t>-0.0797</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.54e-01</t>
+          <t>9.52e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.426</t>
+          <t>-0.168</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0128</t>
         </is>
       </c>
     </row>

--- a/python/three/gg.xlsx
+++ b/python/three/gg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,44 +441,39 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 2</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Error</t>
+          <t>SD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>τ1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,44 +483,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.84e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.21e+00</t>
+          <t>0.135</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>6.07e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.10e+00</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-0.375</t>
+          <t>0.146</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>τ2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,44 +525,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>5.16e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.99e+00</t>
+          <t>0.681</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.237</t>
+          <t>1.18e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.88e+00</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>5.15e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.93e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>21.4</t>
+          <t>0.632</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>τ3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,178 +567,158 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.00e+00</t>
+          <t>2.64e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.39e+00</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>5.74e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42e+00</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>4.48e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.24e+00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-81.1</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>δ1</t>
+          <t>τ3Q0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.70e-01</t>
+          <t>4.00e+00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.70e-01</t>
+          <t>2.66e+00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.59e-01</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.78e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.58e-01</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>4.52e+00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.11e-01</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-80.4</t>
+          <t>6.87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>δ2</t>
+          <t>δ1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>1.70e-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>1.52e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2.45e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>1.34e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.94e-01</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-24.3</t>
+          <t>0.0717</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
+          <t>δ2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>5.79e-02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.94e-05</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>3.91e-01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.96e-05</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>41.1</t>
+          <t>1.87</t>
         </is>
       </c>
     </row>
@@ -770,37 +735,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.48e-01</t>
+          <t>9.47e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.00184</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>9.51e-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-0.0797</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>0.00181</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>9.52e-01</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.168</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0128</t>
+          <t>0.00187</t>
         </is>
       </c>
     </row>
